--- a/scores.xlsx
+++ b/scores.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Id</t>
   </si>
@@ -158,6 +158,18 @@
   </si>
   <si>
     <t xml:space="preserve"> yugam123@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shaurya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shaum@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sayak</t>
+  </si>
+  <si>
+    <t>sayakb@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -539,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ8"/>
+  <dimension ref="A1:AJ10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
@@ -1429,6 +1441,226 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Id</t>
   </si>
@@ -88,52 +88,19 @@
     <t>Q21</t>
   </si>
   <si>
+    <t>Q22</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Ishita</t>
-  </si>
-  <si>
-    <t>ishita960@gmail.com</t>
-  </si>
-  <si>
-    <t>9327845122</t>
-  </si>
-  <si>
-    <t>Naman</t>
-  </si>
-  <si>
-    <t>namanrc@gmail.com</t>
-  </si>
-  <si>
-    <t>6872364536</t>
-  </si>
-  <si>
-    <t>Karan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> karang@gmail.com</t>
-  </si>
-  <si>
-    <t>9567543256</t>
-  </si>
-  <si>
-    <t>Rohan</t>
-  </si>
-  <si>
-    <t>rohan.76@gmail.com</t>
-  </si>
-  <si>
-    <t>9567281957</t>
-  </si>
-  <si>
-    <t>Priyanshu</t>
-  </si>
-  <si>
-    <t>prgautam@gmail.com</t>
-  </si>
-  <si>
-    <t>7760685202</t>
+    <t>Jaideep</t>
+  </si>
+  <si>
+    <t>jai123@gmail.com</t>
+  </si>
+  <si>
+    <t>9874859374</t>
   </si>
 </sst>
 </file>
@@ -515,18 +482,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:AA2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="25" width="5" customWidth="1"/>
-    <col min="26" max="26" width="10" customWidth="1"/>
+    <col min="5" max="26" width="5" customWidth="1"/>
+    <col min="27" max="27" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,19 +572,22 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -632,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -644,13 +614,13 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -668,342 +638,25 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <v>1</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="Z5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-      <c r="Z6">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -56,12 +56,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Hemant</t>
-  </si>
-  <si>
-    <t>hm@ww.com</t>
   </si>
 </sst>
 </file>
@@ -443,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
@@ -501,53 +495,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2">
-        <v>7781298854</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
